--- a/plantilla_metro.xlsx
+++ b/plantilla_metro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nob96\OneDrive\Escritorio\mtro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nob96\OneDrive\Escritorio\metro-de-santiago-de-chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC93260-345A-41C2-A42B-08840EE0786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B43F0E-786F-4471-836B-23BDD89CE479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1830" windowWidth="18300" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -568,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -595,6 +601,8 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,31 +3659,31 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="18">
         <v>1620</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="19">
         <v>-33.519540954963901</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="19">
         <v>-70.596072974723199</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="19">
         <v>-33.5309389918541</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I95" s="19">
         <v>-70.605572190410996</v>
       </c>
     </row>
